--- a/data/inshore/raw/dt_wq_inshore_metadata.xlsx
+++ b/data/inshore/raw/dt_wq_inshore_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\spatial-analyses\data\02. dry_tropics\dt_water-quality_inshore\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\GitHub\RcWaterQuality\data\inshore\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A0914-F5B0-4C2C-A37C-35ED88F9D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6A54F-C6D6-4805-AD20-B4321AA238DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BF71D581-F6B3-4658-B4B9-A43EB1317458}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF71D581-F6B3-4658-B4B9-A43EB1317458}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="LOR Sources" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Sites!$F$1:$O$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Historic_Sites!$F$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Sites!$F$1:$O$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Historic_Sites!$A$1:$P$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LOR!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WQO!$A$1:$A$81</definedName>
   </definedNames>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="185">
   <si>
     <t>open coastal</t>
   </si>
@@ -1369,6 +1369,12 @@
   </si>
   <si>
     <t>WatercourseOrGeographicArea</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ORNATAS Shutdown</t>
   </si>
 </sst>
 </file>
@@ -1539,22 +1545,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2134,32 +2140,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2214,10 +2220,10 @@
       <c r="F6" s="27"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
@@ -2262,113 +2268,113 @@
       <c r="O10" s="27"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
       <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -2385,22 +2391,22 @@
       <c r="X17" s="20"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -2512,65 +2518,75 @@
       <c r="U22" s="27"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A23:AA23"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:W16"/>
+    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:AC21"/>
+    <mergeCell ref="A22:U22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="A2:D2"/>
@@ -2583,16 +2599,6 @@
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A23:AA23"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:W16"/>
-    <mergeCell ref="A19:W19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:AC21"/>
-    <mergeCell ref="A22:U22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2600,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,34 +3285,37 @@
         <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M16" s="2">
-        <v>-19.071100000000001</v>
+        <v>-18.8154</v>
       </c>
       <c r="N16" s="2">
-        <v>146.47045</v>
+        <v>146.43358330000001</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
@@ -3323,34 +3332,34 @@
         <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M17" s="2">
-        <v>-19.088360000000002</v>
+        <v>-18.816800000000001</v>
       </c>
       <c r="N17" s="2">
-        <v>146.49553</v>
+        <v>146.43459999999999</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
@@ -3367,19 +3376,19 @@
         <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
         <v>159</v>
@@ -3388,16 +3397,16 @@
         <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M18" s="2">
-        <v>-18.8154</v>
+        <v>-18.540583300000002</v>
       </c>
       <c r="N18" s="2">
-        <v>146.43358330000001</v>
+        <v>146.48855</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
@@ -3414,16 +3423,16 @@
         <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>159</v>
@@ -3432,116 +3441,25 @@
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M19" s="2">
-        <v>-18.816800000000001</v>
+        <v>-18.540600000000001</v>
       </c>
       <c r="N19" s="2">
-        <v>146.43459999999999</v>
+        <v>146.48859999999999</v>
       </c>
       <c r="O19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-18.540583300000002</v>
-      </c>
-      <c r="N20" s="2">
-        <v>146.48855</v>
-      </c>
-      <c r="O20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="2">
-        <v>-18.540600000000001</v>
-      </c>
-      <c r="N21" s="2">
-        <v>146.48859999999999</v>
-      </c>
-      <c r="O21" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:O21" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F20:F21">
-    <sortCondition ref="F20:F21"/>
+  <autoFilter ref="F1:O19" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F18:F19">
+    <sortCondition ref="F18:F19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3550,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01F388-0E4A-434F-A3DE-47311A5464AC}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,7 +3492,7 @@
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -3620,8 +3538,11 @@
       <c r="O1" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +3586,102 @@
         <v>52</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-19.071100000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>146.47045</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-19.088360000000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>146.49553</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:O1" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}"/>
+  <autoFilter ref="A1:P4" xr:uid="{CC01F388-0E4A-434F-A3DE-47311A5464AC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5633,6 +5648,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a04b7680-e269-4f87-b21c-839602379be9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010006C5C85E62C9C340B5A396AF3BBA3C1C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d80209cfee3b3c18b014362fba9a8cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693" xmlns:ns3="a04b7680-e269-4f87-b21c-839602379be9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38b1a57fd49bf8fbbd210428ff2c9c12" ns2:_="" ns3:_="">
     <xsd:import namespace="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
@@ -5843,27 +5878,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a04b7680-e269-4f87-b21c-839602379be9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DE941F-A6BB-409F-B0E0-AE0C5AA57E5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a04b7680-e269-4f87-b21c-839602379be9"/>
+    <ds:schemaRef ds:uri="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B06202-1905-47FE-AD57-DA00C513E2FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5880,23 +5914,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DE941F-A6BB-409F-B0E0-AE0C5AA57E5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a04b7680-e269-4f87-b21c-839602379be9"/>
-    <ds:schemaRef ds:uri="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>